--- a/BACKLOG.xlsx
+++ b/BACKLOG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Priotity 
 [0-High 1-Medium 2-Low]</t>
@@ -80,19 +80,34 @@
     <t>Descriptive - Heatmap MAPS</t>
   </si>
   <si>
-    <t>Forecast - Predict CAI</t>
-  </si>
-  <si>
-    <t>? Janet</t>
-  </si>
-  <si>
-    <t>?  Cylia</t>
-  </si>
-  <si>
     <t>Indu</t>
   </si>
   <si>
-    <t>VIET</t>
+    <t>CSV - Insert Files</t>
+  </si>
+  <si>
+    <t>Viet</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>Cylia</t>
+  </si>
+  <si>
+    <t>CAI</t>
+  </si>
+  <si>
+    <t>Forecast - Predict CAI - Script</t>
+  </si>
+  <si>
+    <t>Forecast - Predict - Interface</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Documentation (Motivation, Solutions, etc)</t>
   </si>
 </sst>
 </file>
@@ -130,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -162,11 +177,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,158 +519,178 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>0</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -666,7 +713,20 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
   </sheetData>
+  <sortState ref="B2:D12">
+    <sortCondition ref="B2:B12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
